--- a/7_Part 4 Graphics and tables/xlsx-files/Modal Split_Personenkilometer.xlsx
+++ b/7_Part 4 Graphics and tables/xlsx-files/Modal Split_Personenkilometer.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="B2" s="3" t="n">
-        <v>16.97</v>
+        <v>12.06</v>
       </c>
     </row>
     <row r="3">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>15.64</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>16.56</v>
+        <v>23.88</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>16.8</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="6">
@@ -504,7 +504,7 @@
         </is>
       </c>
       <c r="B6" s="3" t="n">
-        <v>17.32</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="7">
@@ -514,7 +514,7 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>16.72</v>
+        <v>25.52</v>
       </c>
     </row>
   </sheetData>
